--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Benson.Fall.121019.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Benson.Fall.121019.xlsx_with_dialog_acts.xlsx
@@ -509,12 +509,12 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -699,12 +699,12 @@
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -851,12 +851,12 @@
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1117,12 +1117,12 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2029,12 +2029,12 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2325,12 +2325,12 @@
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2589,12 +2589,12 @@
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -3801,12 +3801,12 @@
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4137,12 +4137,12 @@
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4289,12 +4289,12 @@
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4597,12 +4597,12 @@
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4749,12 +4749,12 @@
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4901,12 +4901,12 @@
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5091,12 +5091,12 @@
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5281,12 +5281,12 @@
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5889,12 +5889,12 @@
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6003,12 +6003,12 @@
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6155,12 +6155,12 @@
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6383,12 +6383,12 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6421,12 +6421,12 @@
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7029,12 +7029,12 @@
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7181,12 +7181,12 @@
       <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7299,12 +7299,12 @@
       <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7603,12 +7603,12 @@
       <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7641,12 +7641,12 @@
       <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7679,12 +7679,12 @@
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7793,12 +7793,12 @@
       <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8287,12 +8287,12 @@
       <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8325,12 +8325,12 @@
       <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8363,12 +8363,12 @@
       <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8515,12 +8515,12 @@
       <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8553,12 +8553,12 @@
       <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8591,12 +8591,12 @@
       <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8781,12 +8781,12 @@
       <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8819,12 +8819,12 @@
       <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8857,12 +8857,12 @@
       <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8933,12 +8933,12 @@
       <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9161,12 +9161,12 @@
       <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -9237,12 +9237,12 @@
       <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9275,12 +9275,12 @@
       <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10347,12 +10347,12 @@
       <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10423,12 +10423,12 @@
       <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10955,12 +10955,12 @@
       <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11751,12 +11751,12 @@
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11789,12 +11789,12 @@
       <c r="H299" t="inlineStr"/>
       <c r="I299" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12283,12 +12283,12 @@
       <c r="H312" t="inlineStr"/>
       <c r="I312" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12359,12 +12359,12 @@
       <c r="H314" t="inlineStr"/>
       <c r="I314" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -12473,12 +12473,12 @@
       <c r="H317" t="inlineStr"/>
       <c r="I317" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12659,12 +12659,12 @@
       <c r="H322" t="inlineStr"/>
       <c r="I322" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -12773,12 +12773,12 @@
       <c r="H325" t="inlineStr"/>
       <c r="I325" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13041,12 +13041,12 @@
       <c r="H332" t="inlineStr"/>
       <c r="I332" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13155,12 +13155,12 @@
       <c r="H335" t="inlineStr"/>
       <c r="I335" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13343,12 +13343,12 @@
       <c r="H340" t="inlineStr"/>
       <c r="I340" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13457,12 +13457,12 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -14141,12 +14141,12 @@
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14217,12 +14217,12 @@
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14409,12 +14409,12 @@
       </c>
       <c r="I368" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J368" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14447,12 +14447,12 @@
       </c>
       <c r="I369" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14637,12 +14637,12 @@
       <c r="H374" t="inlineStr"/>
       <c r="I374" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J374" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -15239,12 +15239,12 @@
       <c r="H390" t="inlineStr"/>
       <c r="I390" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J390" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -15617,12 +15617,12 @@
       <c r="H400" t="inlineStr"/>
       <c r="I400" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J400" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15693,12 +15693,12 @@
       <c r="H402" t="inlineStr"/>
       <c r="I402" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J402" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15845,12 +15845,12 @@
       <c r="H406" t="inlineStr"/>
       <c r="I406" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J406" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
